--- a/DicionarioDeDados.xlsx
+++ b/DicionarioDeDados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C376A883-DA6A-4098-A4B8-23E2E98372CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D79810E-8FBD-4A2F-BEB1-8360A5A2A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="178">
   <si>
     <t>Curso</t>
   </si>
@@ -348,6 +348,9 @@
     <t>Nome da turma.</t>
   </si>
   <si>
+    <t>curso_cod_id</t>
+  </si>
+  <si>
     <t>Curso ao qual a turma pertence.</t>
   </si>
   <si>
@@ -405,7 +408,7 @@
     <t>ementa</t>
   </si>
   <si>
-    <t>VARCHAR(max)</t>
+    <t>TEXT</t>
   </si>
   <si>
     <t xml:space="preserve"> 65,535 chars</t>
@@ -418,6 +421,33 @@
   </si>
   <si>
     <t>Carga horária total da disciplina</t>
+  </si>
+  <si>
+    <t>AlunoProjeto</t>
+  </si>
+  <si>
+    <t>codigo do aluno</t>
+  </si>
+  <si>
+    <t>projeto_cod_id</t>
+  </si>
+  <si>
+    <t>codigo do projeto</t>
+  </si>
+  <si>
+    <t>função</t>
+  </si>
+  <si>
+    <t>funçao do aluno no projeto de pesquisa</t>
+  </si>
+  <si>
+    <t>professorProjeto</t>
+  </si>
+  <si>
+    <t>professor_cod_id</t>
+  </si>
+  <si>
+    <t>funçao do professor no projeto de pesquisa</t>
   </si>
   <si>
     <t>Entidade</t>
@@ -514,7 +544,7 @@
     <t>Alunos que participam de projetos de pesquisa.</t>
   </si>
   <si>
-    <t>Alunos que estão envolvidos em projetos de pesquisa.</t>
+    <t>Alunos que estão envolvidos em projetos de pesquisa e suas respectivas funçoes</t>
   </si>
   <si>
     <t>Nota</t>
@@ -806,38 +836,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G124"/>
+  <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,14 +1236,14 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="33" t="s">
@@ -1344,14 +1374,14 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7" ht="50.25" customHeight="1">
       <c r="B12" s="33" t="s">
@@ -1462,14 +1492,14 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="2:7" ht="50.25" customHeight="1">
       <c r="B19" s="33" t="s">
@@ -1600,14 +1630,14 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="2:7" ht="50.25" customHeight="1">
       <c r="B27" s="33" t="s">
@@ -1718,14 +1748,14 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="2:7" ht="50.25" customHeight="1">
       <c r="B34" s="33" t="s">
@@ -1876,14 +1906,14 @@
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="2:7" ht="50.25" customHeight="1">
       <c r="B43" s="33" t="s">
@@ -1994,14 +2024,14 @@
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" spans="2:7" ht="50.25" customHeight="1">
       <c r="B50" s="33" t="s">
@@ -2139,7 +2169,7 @@
       <c r="F56" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="36" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2192,14 +2222,14 @@
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="2:7" ht="50.25" customHeight="1">
       <c r="B61" s="33" t="s">
@@ -2263,7 +2293,7 @@
     </row>
     <row r="64" spans="2:7" ht="50.25" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>8</v>
@@ -2278,12 +2308,12 @@
         <v>51</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="50.25" customHeight="1">
       <c r="B65" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -2298,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="50.25" customHeight="1">
@@ -2318,12 +2348,12 @@
         <v>95</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="50.25" customHeight="1">
       <c r="B67" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>8</v>
@@ -2338,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="50.25" customHeight="1">
@@ -2350,14 +2380,14 @@
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B69" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="46"/>
+      <c r="B69" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
     </row>
     <row r="70" spans="2:7" ht="50.25" customHeight="1">
       <c r="B70" s="33" t="s">
@@ -2401,7 +2431,7 @@
     </row>
     <row r="72" spans="2:7" ht="50.25" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>14</v>
@@ -2413,15 +2443,15 @@
         <v>100</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="50.25" customHeight="1">
       <c r="B73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -2433,15 +2463,15 @@
         <v>46</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="50.25" customHeight="1">
       <c r="B74" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>14</v>
@@ -2456,12 +2486,12 @@
         <v>17</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="50.25" customHeight="1">
       <c r="B75" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>8</v>
@@ -2476,19 +2506,19 @@
         <v>17</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="50.25" customHeight="1"/>
     <row r="77" spans="2:7" ht="15" customHeight="1">
-      <c r="B77" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
+      <c r="B77" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="41"/>
     </row>
     <row r="78" spans="2:7" ht="50.25" customHeight="1">
       <c r="B78" s="30" t="s">
@@ -2547,7 +2577,7 @@
         <v>17</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="83.25" customHeight="1">
@@ -2567,32 +2597,32 @@
         <v>17</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="50.25" customHeight="1">
       <c r="B82" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="50.25" customHeight="1">
       <c r="B83" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>8</v>
@@ -2607,422 +2637,604 @@
         <v>17</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="30" t="s">
+      <c r="B85" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="41"/>
+    </row>
+    <row r="86" spans="2:7" ht="63.75" customHeight="1">
+      <c r="B86" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="63.75" customHeight="1">
+      <c r="B87" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E85" s="30" t="s">
+    </row>
+    <row r="88" spans="2:7" ht="63.75" customHeight="1">
+      <c r="B88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="57" customHeight="1">
+      <c r="B89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="41"/>
+    </row>
+    <row r="92" spans="2:7" ht="60" customHeight="1">
+      <c r="B92" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="29.25">
-      <c r="B86" s="39" t="s">
+    <row r="93" spans="2:7" ht="60" customHeight="1">
+      <c r="B93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="60" customHeight="1">
+      <c r="B94" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="60" customHeight="1">
+      <c r="B95" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="53.25" customHeight="1">
+      <c r="B98" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="33" customHeight="1">
+      <c r="B99" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C99" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="39"/>
-      <c r="C87" s="23" t="s">
+      <c r="D99" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="29.25" customHeight="1">
+      <c r="B100" s="45"/>
+      <c r="C100" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="39"/>
-      <c r="C88" s="23" t="s">
+      <c r="D100" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="24.75" customHeight="1">
+      <c r="B101" s="45"/>
+      <c r="C101" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="39"/>
-      <c r="C89" s="23" t="s">
+      <c r="D101" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="24.75" customHeight="1">
+      <c r="B102" s="45"/>
+      <c r="C102" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="53.25" customHeight="1">
-      <c r="B90" s="36" t="s">
+      <c r="D102" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="24.75" customHeight="1">
+      <c r="B103" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C103" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="33" customHeight="1">
-      <c r="B91" s="39" t="s">
+      <c r="D103" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="30.75" customHeight="1">
+      <c r="B104" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B92" s="39"/>
-      <c r="C92" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="23" t="s">
+      <c r="C104" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="29.25">
+      <c r="B105" s="45"/>
+      <c r="C105" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E92" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B93" s="39"/>
-      <c r="C93" s="23" t="s">
+      <c r="E105" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="45"/>
+      <c r="C106" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="45"/>
+      <c r="C107" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D107" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="45"/>
+      <c r="C108" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="29.25">
+      <c r="B109" s="45"/>
+      <c r="C109" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="43.5">
+      <c r="B110" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="29.25">
+      <c r="B111" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="29.25">
+      <c r="B112" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B94" s="39"/>
-      <c r="C94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B95" s="39"/>
-      <c r="C95" s="23" t="s">
+      <c r="C112" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="29.25">
+      <c r="B113" s="46"/>
+      <c r="C113" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D113" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="29.25">
+      <c r="B114" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="29.25">
+      <c r="B115" s="45"/>
+      <c r="C115" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="29.25">
+      <c r="B116" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="45"/>
+      <c r="C117" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="45"/>
+      <c r="C118" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="29.25">
+      <c r="B119" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="29.25">
+      <c r="B120" s="45"/>
+      <c r="C120" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E95" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B96" s="39"/>
-      <c r="C96" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="43.5">
-      <c r="B97" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="29.25">
-      <c r="B98" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="29.25">
-      <c r="B99" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="23" t="s">
+      <c r="E120" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="29.25">
+      <c r="B121" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="29.25">
+      <c r="B122" s="45"/>
+      <c r="C122" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E99" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="29.25">
-      <c r="B100" s="40"/>
-      <c r="C100" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="29.25">
-      <c r="B101" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="29.25">
-      <c r="B102" s="39"/>
-      <c r="C102" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="29.25">
-      <c r="B103" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="39"/>
-      <c r="C104" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="39"/>
-      <c r="C105" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="29.25">
-      <c r="B106" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="29.25">
-      <c r="B107" s="39"/>
-      <c r="C107" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="29.25">
-      <c r="B108" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="29.25">
-      <c r="B109" s="39"/>
-      <c r="C109" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="27"/>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="27"/>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="27"/>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="27"/>
+      <c r="E122" s="22" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="123" spans="2:5">
-      <c r="B123" s="27"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
     </row>
     <row r="124" spans="2:5">
-      <c r="B124" s="27"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="27"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="27"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="27"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="27"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="27"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B112:B113"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B99:B102"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B91:G91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DicionarioDeDados.xlsx
+++ b/DicionarioDeDados.xlsx
@@ -1,37 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D79810E-8FBD-4A2F-BEB1-8360A5A2A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="180">
   <si>
     <t>Curso</t>
   </si>
@@ -465,7 +445,7 @@
     <t>Professores associados a cursos específicos</t>
   </si>
   <si>
-    <t>participa</t>
+    <t>Atua</t>
   </si>
   <si>
     <t>Professores que participam de projetos</t>
@@ -499,6 +479,9 @@
   </si>
   <si>
     <t>Materiais didáticos atribuídos à turma.</t>
+  </si>
+  <si>
+    <t>Assiste</t>
   </si>
   <si>
     <t>Aluno</t>
@@ -539,6 +522,9 @@
   </si>
   <si>
     <t>Professores que participam de projetos de pesquisa.</t>
+  </si>
+  <si>
+    <t>participa</t>
   </si>
   <si>
     <t>Alunos que participam de projetos de pesquisa.</t>
@@ -571,28 +557,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,84 +593,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="11">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -692,7 +632,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -701,11 +640,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -717,8 +654,36 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -727,180 +692,165 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="48">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="145F82"/>
@@ -924,113 +874,19 @@
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="467886"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Aptos Narrow"/>
+        <a:cs typeface="Aptos Narrow"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Aptos Narrow"/>
+        <a:cs typeface="Aptos Narrow"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,6 +948,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1100,13 +963,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1171,2071 +1027,4692 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="10" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.63"/>
+    <col customWidth="1" min="2" max="2" width="18.63"/>
+    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col customWidth="1" min="4" max="4" width="24.0"/>
+    <col customWidth="1" min="5" max="5" width="35.75"/>
+    <col customWidth="1" min="6" max="6" width="18.75"/>
+    <col customWidth="1" min="7" max="7" width="21.88"/>
+    <col customWidth="1" min="8" max="26" width="8.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="39" t="s">
+    <row r="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="33" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B5" s="13" t="s">
+    <row r="5" ht="50.25" customHeight="1">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B6" s="7" t="s">
+    <row r="6" ht="50.25" customHeight="1">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B7" s="7" t="s">
+    <row r="7" ht="50.25" customHeight="1">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B8" s="1" t="s">
+    <row r="8" ht="50.25" customHeight="1">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="50.25" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B11" s="39" t="s">
+    <row r="10" ht="50.25" customHeight="1">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="50.25" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B12" s="33" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" ht="50.25" customHeight="1">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B13" s="7" t="s">
+    <row r="13" ht="50.25" customHeight="1">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="60.75" customHeight="1">
-      <c r="B14" s="7" t="s">
+    <row r="14" ht="60.75" customHeight="1">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B15" s="7" t="s">
+    <row r="15" ht="50.25" customHeight="1">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B16" s="7" t="s">
+    <row r="16" ht="50.25" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B18" s="42" t="s">
+    <row r="17" ht="50.25" customHeight="1">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" ht="50.25" customHeight="1">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B20" s="13" t="s">
+    <row r="20" ht="50.25" customHeight="1">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B21" s="7" t="s">
+    <row r="21" ht="50.25" customHeight="1">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B22" s="7" t="s">
+    <row r="22" ht="50.25" customHeight="1">
+      <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B23" s="7" t="s">
+    <row r="23" ht="50.25" customHeight="1">
+      <c r="B23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B24" s="7" t="s">
+    <row r="24" ht="50.25" customHeight="1">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="42" t="s">
+    <row r="25" ht="50.25" customHeight="1">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B27" s="33" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" ht="50.25" customHeight="1">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B28" s="13" t="s">
+    <row r="28" ht="50.25" customHeight="1">
+      <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B29" s="1" t="s">
+    <row r="29" ht="50.25" customHeight="1">
+      <c r="B29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B30" s="7" t="s">
+    <row r="30" ht="50.25" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B31" s="7" t="s">
+    <row r="31" ht="50.25" customHeight="1">
+      <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1">
-      <c r="B33" s="42" t="s">
+    <row r="32" ht="50.25" customHeight="1">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" ht="15.0" customHeight="1">
+      <c r="B33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B34" s="33" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" ht="50.25" customHeight="1">
+      <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B35" s="13" t="s">
+    <row r="35" ht="50.25" customHeight="1">
+      <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B36" s="1" t="s">
+    <row r="36" ht="50.25" customHeight="1">
+      <c r="B36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B37" s="7" t="s">
+    <row r="37" ht="50.25" customHeight="1">
+      <c r="B37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B38" s="7" t="s">
+    <row r="38" ht="50.25" customHeight="1">
+      <c r="B38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B39" s="15" t="s">
+    <row r="39" ht="50.25" customHeight="1">
+      <c r="B39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B40" s="7" t="s">
+    <row r="40" ht="50.25" customHeight="1">
+      <c r="B40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="42" t="s">
+    <row r="41" ht="50.25" customHeight="1">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B43" s="33" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" ht="50.25" customHeight="1">
+      <c r="B43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B44" s="13" t="s">
+    <row r="44" ht="50.25" customHeight="1">
+      <c r="B44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B45" s="15" t="s">
+    <row r="45" ht="50.25" customHeight="1">
+      <c r="B45" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B46" s="7" t="s">
+    <row r="46" ht="50.25" customHeight="1">
+      <c r="B46" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B47" s="7" t="s">
+    <row r="47" ht="50.25" customHeight="1">
+      <c r="B47" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="42" t="s">
+    <row r="48" ht="50.25" customHeight="1">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B50" s="33" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" ht="50.25" customHeight="1">
+      <c r="B50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B51" s="13" t="s">
+    <row r="51" ht="50.25" customHeight="1">
+      <c r="B51" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B52" s="1" t="s">
+    <row r="52" ht="50.25" customHeight="1">
+      <c r="B52" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B53" s="1" t="s">
+    <row r="53" ht="50.25" customHeight="1">
+      <c r="B53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B54" s="1" t="s">
+    <row r="54" ht="50.25" customHeight="1">
+      <c r="B54" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B55" s="4" t="s">
+    <row r="55" ht="50.25" customHeight="1">
+      <c r="B55" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B56" s="4" t="s">
+    <row r="56" ht="50.25" customHeight="1">
+      <c r="B56" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B57" s="1" t="s">
+    <row r="57" ht="50.25" customHeight="1">
+      <c r="B57" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B58" s="7" t="s">
+    <row r="58" ht="50.25" customHeight="1">
+      <c r="B58" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B60" s="39" t="s">
+    <row r="59" ht="50.25" customHeight="1">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" ht="19.5" customHeight="1">
+      <c r="B60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-    </row>
-    <row r="61" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B61" s="33" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" ht="50.25" customHeight="1">
+      <c r="B61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B62" s="7" t="s">
+    <row r="62" ht="50.25" customHeight="1">
+      <c r="B62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B63" s="7" t="s">
+    <row r="63" ht="50.25" customHeight="1">
+      <c r="B63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B64" s="7" t="s">
+    <row r="64" ht="50.25" customHeight="1">
+      <c r="B64" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B65" s="7" t="s">
+    <row r="65" ht="50.25" customHeight="1">
+      <c r="B65" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B66" s="7" t="s">
+    <row r="66" ht="50.25" customHeight="1">
+      <c r="B66" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="7">
-        <v>50</v>
-      </c>
-      <c r="F66" s="7" t="s">
+      <c r="E66" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B67" s="7" t="s">
+    <row r="67" ht="50.25" customHeight="1">
+      <c r="B67" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B69" s="42" t="s">
+    <row r="68" ht="50.25" customHeight="1">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c r="B69" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="44"/>
-    </row>
-    <row r="70" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B70" s="33" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" ht="50.25" customHeight="1">
+      <c r="B70" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="G70" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B71" s="13" t="s">
+    <row r="71" ht="50.25" customHeight="1">
+      <c r="B71" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B72" s="7" t="s">
+    <row r="72" ht="50.25" customHeight="1">
+      <c r="B72" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="7">
-        <v>100</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B73" s="7" t="s">
+    <row r="73" ht="50.25" customHeight="1">
+      <c r="B73" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B74" s="15" t="s">
+    <row r="74" ht="50.25" customHeight="1">
+      <c r="B74" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B75" s="7" t="s">
+    <row r="75" ht="50.25" customHeight="1">
+      <c r="B75" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="50.25" customHeight="1"/>
-    <row r="77" spans="2:7" ht="15" customHeight="1">
-      <c r="B77" s="39" t="s">
+    <row r="76" ht="50.25" customHeight="1">
+      <c r="G76" s="28"/>
+    </row>
+    <row r="77" ht="15.0" customHeight="1">
+      <c r="B77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41"/>
-    </row>
-    <row r="78" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B78" s="30" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" ht="50.25" customHeight="1">
+      <c r="B78" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G78" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B79" s="3" t="s">
+    <row r="79" ht="50.25" customHeight="1">
+      <c r="B79" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B80" s="3" t="s">
+    <row r="80" ht="50.25" customHeight="1">
+      <c r="B80" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="83.25" customHeight="1">
-      <c r="B81" s="3" t="s">
+    <row r="81" ht="83.25" customHeight="1">
+      <c r="B81" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B82" s="3" t="s">
+    <row r="82" ht="50.25" customHeight="1">
+      <c r="B82" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B83" s="3" t="s">
+    <row r="83" ht="50.25" customHeight="1">
+      <c r="B83" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="39" t="s">
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="B85" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="41"/>
-    </row>
-    <row r="86" spans="2:7" ht="63.75" customHeight="1">
-      <c r="B86" s="30" t="s">
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" ht="63.75" customHeight="1">
+      <c r="B86" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="32" t="s">
+      <c r="G86" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="63.75" customHeight="1">
-      <c r="B87" s="3" t="s">
+    <row r="87" ht="63.75" customHeight="1">
+      <c r="B87" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="63.75" customHeight="1">
-      <c r="B88" s="3" t="s">
+    <row r="88" ht="63.75" customHeight="1">
+      <c r="B88" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="57" customHeight="1">
-      <c r="B89" s="3" t="s">
+    <row r="89" ht="57.0" customHeight="1">
+      <c r="B89" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="39" t="s">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="G90" s="28"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="B91" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="41"/>
-    </row>
-    <row r="92" spans="2:7" ht="60" customHeight="1">
-      <c r="B92" s="30" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" ht="60.0" customHeight="1">
+      <c r="B92" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G92" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="60" customHeight="1">
-      <c r="B93" s="3" t="s">
+    <row r="93" ht="60.0" customHeight="1">
+      <c r="B93" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="60" customHeight="1">
-      <c r="B94" s="3" t="s">
+    <row r="94" ht="60.0" customHeight="1">
+      <c r="B94" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="60" customHeight="1">
-      <c r="B95" s="3" t="s">
+    <row r="95" ht="60.0" customHeight="1">
+      <c r="B95" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="53.25" customHeight="1">
-      <c r="B98" s="29" t="s">
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="G96" s="28"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="G97" s="28"/>
+    </row>
+    <row r="98" ht="53.25" customHeight="1">
+      <c r="B98" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" ht="33" customHeight="1">
-      <c r="B99" s="45" t="s">
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" ht="33.0" customHeight="1">
+      <c r="B99" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="37" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" ht="29.25" customHeight="1">
-      <c r="B100" s="45"/>
-      <c r="C100" s="23" t="s">
+      <c r="G99" s="28"/>
+    </row>
+    <row r="100" ht="29.25" customHeight="1">
+      <c r="B100" s="38"/>
+      <c r="C100" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" ht="24.75" customHeight="1">
-      <c r="B101" s="45"/>
-      <c r="C101" s="23" t="s">
+      <c r="G100" s="28"/>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="B101" s="38"/>
+      <c r="C101" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="37" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" ht="24.75" customHeight="1">
-      <c r="B102" s="45"/>
-      <c r="C102" s="23" t="s">
+      <c r="G101" s="28"/>
+    </row>
+    <row r="102" ht="24.75" customHeight="1">
+      <c r="B102" s="40"/>
+      <c r="C102" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" ht="24.75" customHeight="1">
-      <c r="B103" s="37" t="s">
+      <c r="G102" s="28"/>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="B103" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="37" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" ht="30.75" customHeight="1">
-      <c r="B104" s="45" t="s">
+      <c r="G103" s="28"/>
+    </row>
+    <row r="104" ht="30.75" customHeight="1">
+      <c r="B104" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="37" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" ht="29.25">
-      <c r="B105" s="45"/>
-      <c r="C105" s="23" t="s">
+      <c r="G104" s="28"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="B105" s="38"/>
+      <c r="C105" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="37" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="45"/>
-      <c r="C106" s="23" t="s">
+      <c r="G105" s="28"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="B106" s="38"/>
+      <c r="C106" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="45"/>
-      <c r="C107" s="23" t="s">
+      <c r="G106" s="28"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="B107" s="38"/>
+      <c r="C107" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107" s="28"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="38"/>
+      <c r="C108" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G108" s="28"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="40"/>
+      <c r="C109" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G109" s="28"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G110" s="28"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="B111" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G111" s="28"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="B112" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G112" s="28"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="B113" s="40"/>
+      <c r="C113" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G113" s="28"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="B114" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D114" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G114" s="28"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="B115" s="40"/>
+      <c r="C115" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G115" s="28"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="B116" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G116" s="28"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="B117" s="38"/>
+      <c r="C117" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G117" s="28"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="B118" s="40"/>
+      <c r="C118" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="D118" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G118" s="28"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="B119" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="45"/>
-      <c r="C108" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="23" t="s">
+      <c r="E119" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G119" s="28"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="40"/>
+      <c r="C120" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E120" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G120" s="28"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="B121" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" s="28"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="40"/>
+      <c r="C122" s="36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" ht="29.25">
-      <c r="B109" s="45"/>
-      <c r="C109" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="43.5">
-      <c r="B110" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="29.25">
-      <c r="B111" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="29.25">
-      <c r="B112" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" s="23" t="s">
+      <c r="D122" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" ht="29.25">
-      <c r="B113" s="46"/>
-      <c r="C113" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" ht="29.25">
-      <c r="B114" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="29.25">
-      <c r="B115" s="45"/>
-      <c r="C115" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" ht="29.25">
-      <c r="B116" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="45"/>
-      <c r="C117" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="45"/>
-      <c r="C118" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" ht="29.25">
-      <c r="B119" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" ht="29.25">
-      <c r="B120" s="45"/>
-      <c r="C120" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" ht="29.25">
-      <c r="B121" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" ht="29.25">
-      <c r="B122" s="45"/>
-      <c r="C122" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="27"/>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="27"/>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="27"/>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="27"/>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="27"/>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="27"/>
+      <c r="E122" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G122" s="28"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46"/>
+      <c r="G123" s="28"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="G124" s="28"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="G125" s="28"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
+      <c r="G126" s="28"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
+      <c r="G127" s="28"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="G128" s="28"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="G129" s="28"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
+      <c r="G130" s="28"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="G131" s="28"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="47"/>
+      <c r="G132" s="28"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="47"/>
+      <c r="G133" s="28"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="47"/>
+      <c r="G134" s="28"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="47"/>
+      <c r="G135" s="28"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="B136" s="47"/>
+      <c r="G136" s="28"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="B137" s="47"/>
+      <c r="G137" s="28"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="G138" s="28"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="G139" s="28"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="G140" s="28"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="G141" s="28"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="G142" s="28"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="G143" s="28"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="G144" s="28"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="G145" s="28"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="G146" s="28"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="G147" s="28"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="G148" s="28"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="G149" s="28"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="G150" s="28"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="G151" s="28"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="G152" s="28"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="G153" s="28"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="G154" s="28"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="G155" s="28"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="G156" s="28"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="G157" s="28"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="G158" s="28"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="G159" s="28"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="G160" s="28"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="G161" s="28"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="G162" s="28"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="G163" s="28"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="G164" s="28"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="G165" s="28"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="G166" s="28"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="G167" s="28"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="G168" s="28"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="G169" s="28"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="G170" s="28"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="G171" s="28"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="G172" s="28"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="G173" s="28"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="G174" s="28"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="G175" s="28"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="G176" s="28"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="G177" s="28"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="G178" s="28"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="G179" s="28"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="G180" s="28"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="G181" s="28"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="G182" s="28"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="G183" s="28"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="G184" s="28"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="G185" s="28"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="G186" s="28"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="G187" s="28"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="G188" s="28"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="G189" s="28"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="G190" s="28"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="G191" s="28"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="G192" s="28"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="G193" s="28"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="G194" s="28"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="G195" s="28"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="G196" s="28"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="G197" s="28"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="G198" s="28"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="G199" s="28"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="G200" s="28"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="G201" s="28"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="G202" s="28"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="G203" s="28"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="G204" s="28"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="G205" s="28"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="G206" s="28"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="G207" s="28"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="G208" s="28"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="G209" s="28"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="G210" s="28"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="G211" s="28"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="G212" s="28"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="G213" s="28"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="G214" s="28"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="G215" s="28"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="G216" s="28"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="G217" s="28"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="G218" s="28"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="G219" s="28"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="G220" s="28"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="G221" s="28"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="G222" s="28"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="G223" s="28"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="G224" s="28"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="G225" s="28"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="G226" s="28"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="G227" s="28"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="G228" s="28"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="G229" s="28"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="G230" s="28"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="G231" s="28"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="G232" s="28"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="G233" s="28"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="G234" s="28"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="G235" s="28"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="G236" s="28"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="G237" s="28"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="G238" s="28"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="G239" s="28"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="G240" s="28"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="G241" s="28"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="G242" s="28"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="G243" s="28"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="G244" s="28"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="G245" s="28"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="G246" s="28"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="G247" s="28"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="G248" s="28"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="G249" s="28"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="G250" s="28"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="G251" s="28"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="G252" s="28"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="G253" s="28"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="G254" s="28"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="G255" s="28"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="G256" s="28"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="G257" s="28"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="G258" s="28"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="G259" s="28"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="G260" s="28"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="G261" s="28"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="G262" s="28"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="G263" s="28"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="G264" s="28"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="G265" s="28"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="G266" s="28"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="G267" s="28"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="G268" s="28"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="G269" s="28"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="G270" s="28"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="G271" s="28"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="G272" s="28"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="G273" s="28"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="G274" s="28"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="G275" s="28"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="G276" s="28"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="G277" s="28"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="G278" s="28"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="G279" s="28"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="G280" s="28"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="G281" s="28"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="G282" s="28"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="G283" s="28"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="G284" s="28"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="G285" s="28"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="G286" s="28"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="G287" s="28"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="G288" s="28"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="G289" s="28"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="G290" s="28"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="G291" s="28"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="G292" s="28"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="G293" s="28"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="G294" s="28"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="G295" s="28"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="G296" s="28"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="G297" s="28"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="G298" s="28"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="G299" s="28"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="G300" s="28"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="G301" s="28"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="G302" s="28"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="G303" s="28"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="G304" s="28"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="G305" s="28"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="G306" s="28"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="G307" s="28"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="G308" s="28"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="G309" s="28"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="G310" s="28"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="G311" s="28"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="G312" s="28"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="G313" s="28"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="G314" s="28"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="G315" s="28"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="G316" s="28"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="G317" s="28"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="G318" s="28"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="G319" s="28"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="G320" s="28"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="G321" s="28"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="G322" s="28"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="G323" s="28"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="G324" s="28"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="G325" s="28"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="G326" s="28"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="G327" s="28"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="G328" s="28"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="G329" s="28"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="G330" s="28"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="G331" s="28"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="G332" s="28"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="G333" s="28"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="G334" s="28"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="G335" s="28"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="G336" s="28"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="G337" s="28"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="G338" s="28"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="G339" s="28"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="G340" s="28"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="G341" s="28"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="G342" s="28"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="G343" s="28"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="G344" s="28"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="G345" s="28"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="G346" s="28"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="G347" s="28"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="G348" s="28"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="G349" s="28"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="G350" s="28"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="G351" s="28"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="G352" s="28"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="G353" s="28"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="G354" s="28"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="G355" s="28"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="G356" s="28"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="G357" s="28"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="G358" s="28"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="G359" s="28"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="G360" s="28"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="G361" s="28"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="G362" s="28"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="G363" s="28"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="G364" s="28"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="G365" s="28"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="G366" s="28"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="G367" s="28"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="G368" s="28"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="G369" s="28"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="G370" s="28"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="G371" s="28"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="G372" s="28"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="G373" s="28"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="G374" s="28"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="G375" s="28"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="G376" s="28"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="G377" s="28"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="G378" s="28"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="G379" s="28"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="G380" s="28"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="G381" s="28"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="G382" s="28"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="G383" s="28"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="G384" s="28"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="G385" s="28"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="G386" s="28"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="G387" s="28"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="G388" s="28"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="G389" s="28"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="G390" s="28"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="G391" s="28"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="G392" s="28"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="G393" s="28"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="G394" s="28"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="G395" s="28"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="G396" s="28"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="G397" s="28"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="G398" s="28"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="G399" s="28"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="G400" s="28"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="G401" s="28"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="G402" s="28"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="G403" s="28"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="G404" s="28"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="G405" s="28"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="G406" s="28"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="G407" s="28"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="G408" s="28"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="G409" s="28"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="G410" s="28"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="G411" s="28"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="G412" s="28"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="G413" s="28"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="G414" s="28"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="G415" s="28"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="G416" s="28"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="G417" s="28"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="G418" s="28"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="G419" s="28"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="G420" s="28"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="G421" s="28"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="G422" s="28"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="G423" s="28"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="G424" s="28"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="G425" s="28"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="G426" s="28"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="G427" s="28"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="G428" s="28"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="G429" s="28"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="G430" s="28"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="G431" s="28"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="G432" s="28"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="G433" s="28"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="G434" s="28"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="G435" s="28"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="G436" s="28"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="G437" s="28"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="G438" s="28"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="G439" s="28"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="G440" s="28"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="G441" s="28"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="G442" s="28"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="G443" s="28"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="G444" s="28"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="G445" s="28"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="G446" s="28"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="G447" s="28"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="G448" s="28"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="G449" s="28"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="G450" s="28"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="G451" s="28"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="G452" s="28"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="G453" s="28"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="G454" s="28"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="G455" s="28"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="G456" s="28"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="G457" s="28"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="G458" s="28"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="G459" s="28"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="G460" s="28"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="G461" s="28"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="G462" s="28"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="G463" s="28"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="G464" s="28"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="G465" s="28"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="G466" s="28"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="G467" s="28"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="G468" s="28"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="G469" s="28"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="G470" s="28"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="G471" s="28"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="G472" s="28"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="G473" s="28"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="G474" s="28"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="G475" s="28"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="G476" s="28"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="G477" s="28"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="G478" s="28"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="G479" s="28"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="G480" s="28"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="G481" s="28"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="G482" s="28"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="G483" s="28"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="G484" s="28"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="G485" s="28"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="G486" s="28"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="G487" s="28"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="G488" s="28"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="G489" s="28"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="G490" s="28"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="G491" s="28"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="G492" s="28"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="G493" s="28"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="G494" s="28"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="G495" s="28"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="G496" s="28"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="G497" s="28"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="G498" s="28"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="G499" s="28"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="G500" s="28"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="G501" s="28"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="G502" s="28"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="G503" s="28"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="G504" s="28"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="G505" s="28"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="G506" s="28"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="G507" s="28"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="G508" s="28"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="G509" s="28"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="G510" s="28"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="G511" s="28"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="G512" s="28"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="G513" s="28"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="G514" s="28"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="G515" s="28"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="G516" s="28"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="G517" s="28"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="G518" s="28"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="G519" s="28"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="G520" s="28"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="G521" s="28"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="G522" s="28"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="G523" s="28"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="G524" s="28"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="G525" s="28"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="G526" s="28"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="G527" s="28"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="G528" s="28"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="G529" s="28"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="G530" s="28"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="G531" s="28"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="G532" s="28"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="G533" s="28"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="G534" s="28"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="G535" s="28"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="G536" s="28"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="G537" s="28"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="G538" s="28"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="G539" s="28"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="G540" s="28"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="G541" s="28"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="G542" s="28"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="G543" s="28"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="G544" s="28"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="G545" s="28"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="G546" s="28"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="G547" s="28"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="G548" s="28"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="G549" s="28"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="G550" s="28"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="G551" s="28"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="G552" s="28"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="G553" s="28"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="G554" s="28"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="G555" s="28"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="G556" s="28"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="G557" s="28"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="G558" s="28"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="G559" s="28"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="G560" s="28"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="G561" s="28"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="G562" s="28"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="G563" s="28"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="G564" s="28"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="G565" s="28"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="G566" s="28"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="G567" s="28"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="G568" s="28"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="G569" s="28"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="G570" s="28"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="G571" s="28"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="G572" s="28"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="G573" s="28"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="G574" s="28"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="G575" s="28"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="G576" s="28"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="G577" s="28"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="G578" s="28"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="G579" s="28"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="G580" s="28"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="G581" s="28"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="G582" s="28"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="G583" s="28"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="G584" s="28"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="G585" s="28"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="G586" s="28"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="G587" s="28"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="G588" s="28"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="G589" s="28"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="G590" s="28"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="G591" s="28"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="G592" s="28"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="G593" s="28"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="G594" s="28"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="G595" s="28"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="G596" s="28"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="G597" s="28"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="G598" s="28"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="G599" s="28"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="G600" s="28"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="G601" s="28"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="G602" s="28"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="G603" s="28"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="G604" s="28"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="G605" s="28"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="G606" s="28"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="G607" s="28"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="G608" s="28"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="G609" s="28"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="G610" s="28"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="G611" s="28"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="G612" s="28"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="G613" s="28"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="G614" s="28"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="G615" s="28"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="G616" s="28"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="G617" s="28"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="G618" s="28"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="G619" s="28"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="G620" s="28"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="G621" s="28"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="G622" s="28"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="G623" s="28"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="G624" s="28"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="G625" s="28"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="G626" s="28"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="G627" s="28"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="G628" s="28"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="G629" s="28"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="G630" s="28"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="G631" s="28"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="G632" s="28"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="G633" s="28"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="G634" s="28"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="G635" s="28"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="G636" s="28"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="G637" s="28"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="G638" s="28"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="G639" s="28"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="G640" s="28"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="G641" s="28"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="G642" s="28"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="G643" s="28"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="G644" s="28"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="G645" s="28"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="G646" s="28"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="G647" s="28"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="G648" s="28"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="G649" s="28"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="G650" s="28"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="G651" s="28"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="G652" s="28"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="G653" s="28"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="G654" s="28"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="G655" s="28"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="G656" s="28"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="G657" s="28"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="G658" s="28"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="G659" s="28"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="G660" s="28"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="G661" s="28"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="G662" s="28"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="G663" s="28"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="G664" s="28"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="G665" s="28"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="G666" s="28"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="G667" s="28"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="G668" s="28"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="G669" s="28"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="G670" s="28"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="G671" s="28"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="G672" s="28"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="G673" s="28"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="G674" s="28"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="G675" s="28"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="G676" s="28"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="G677" s="28"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="G678" s="28"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="G679" s="28"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="G680" s="28"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="G681" s="28"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="G682" s="28"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="G683" s="28"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="G684" s="28"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="G685" s="28"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="G686" s="28"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="G687" s="28"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="G688" s="28"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="G689" s="28"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="G690" s="28"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="G691" s="28"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="G692" s="28"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="G693" s="28"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="G694" s="28"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="G695" s="28"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="G696" s="28"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="G697" s="28"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="G698" s="28"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="G699" s="28"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="G700" s="28"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="G701" s="28"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="G702" s="28"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="G703" s="28"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="G704" s="28"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="G705" s="28"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="G706" s="28"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="G707" s="28"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="G708" s="28"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="G709" s="28"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="G710" s="28"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="G711" s="28"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="G712" s="28"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="G713" s="28"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="G714" s="28"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="G715" s="28"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="G716" s="28"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="G717" s="28"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="G718" s="28"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="G719" s="28"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="G720" s="28"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="G721" s="28"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="G722" s="28"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="G723" s="28"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="G724" s="28"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="G725" s="28"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="G726" s="28"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="G727" s="28"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="G728" s="28"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="G729" s="28"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="G730" s="28"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="G731" s="28"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="G732" s="28"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="G733" s="28"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="G734" s="28"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="G735" s="28"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="G736" s="28"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="G737" s="28"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="G738" s="28"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="G739" s="28"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="G740" s="28"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="G741" s="28"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="G742" s="28"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="G743" s="28"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="G744" s="28"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="G745" s="28"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="G746" s="28"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="G747" s="28"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="G748" s="28"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="G749" s="28"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="G750" s="28"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="G751" s="28"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="G752" s="28"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="G753" s="28"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="G754" s="28"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="G755" s="28"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="G756" s="28"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="G757" s="28"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="G758" s="28"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="G759" s="28"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="G760" s="28"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="G761" s="28"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="G762" s="28"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="G763" s="28"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="G764" s="28"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="G765" s="28"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="G766" s="28"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="G767" s="28"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="G768" s="28"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="G769" s="28"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="G770" s="28"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="G771" s="28"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="G772" s="28"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="G773" s="28"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="G774" s="28"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="G775" s="28"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="G776" s="28"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="G777" s="28"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="G778" s="28"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="G779" s="28"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="G780" s="28"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="G781" s="28"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="G782" s="28"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="G783" s="28"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="G784" s="28"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="G785" s="28"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="G786" s="28"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="G787" s="28"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="G788" s="28"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="G789" s="28"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="G790" s="28"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="G791" s="28"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="G792" s="28"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="G793" s="28"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="G794" s="28"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="G795" s="28"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="G796" s="28"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="G797" s="28"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="G798" s="28"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="G799" s="28"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="G800" s="28"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="G801" s="28"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="G802" s="28"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="G803" s="28"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="G804" s="28"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="G805" s="28"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="G806" s="28"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="G807" s="28"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="G808" s="28"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="G809" s="28"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="G810" s="28"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="G811" s="28"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="G812" s="28"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="G813" s="28"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="G814" s="28"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="G815" s="28"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="G816" s="28"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="G817" s="28"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="G818" s="28"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="G819" s="28"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="G820" s="28"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="G821" s="28"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="G822" s="28"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="G823" s="28"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="G824" s="28"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="G825" s="28"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="G826" s="28"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="G827" s="28"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="G828" s="28"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="G829" s="28"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="G830" s="28"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="G831" s="28"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="G832" s="28"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="G833" s="28"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="G834" s="28"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="G835" s="28"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="G836" s="28"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="G837" s="28"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="G838" s="28"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="G839" s="28"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="G840" s="28"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="G841" s="28"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="G842" s="28"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="G843" s="28"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="G844" s="28"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="G845" s="28"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="G846" s="28"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="G847" s="28"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="G848" s="28"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="G849" s="28"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="G850" s="28"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="G851" s="28"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="G852" s="28"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="G853" s="28"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="G854" s="28"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="G855" s="28"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="G856" s="28"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="G857" s="28"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="G858" s="28"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="G859" s="28"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="G860" s="28"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="G861" s="28"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="G862" s="28"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="G863" s="28"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="G864" s="28"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="G865" s="28"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="G866" s="28"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="G867" s="28"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="G868" s="28"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="G869" s="28"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="G870" s="28"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="G871" s="28"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="G872" s="28"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="G873" s="28"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="G874" s="28"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="G875" s="28"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="G876" s="28"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="G877" s="28"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="G878" s="28"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="G879" s="28"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="G880" s="28"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="G881" s="28"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="G882" s="28"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="G883" s="28"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="G884" s="28"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="G885" s="28"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="G886" s="28"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="G887" s="28"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="G888" s="28"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="G889" s="28"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="G890" s="28"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="G891" s="28"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="G892" s="28"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="G893" s="28"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="G894" s="28"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="G895" s="28"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="G896" s="28"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="G897" s="28"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="G898" s="28"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="G899" s="28"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="G900" s="28"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="G901" s="28"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="G902" s="28"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="G903" s="28"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="G904" s="28"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="G905" s="28"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="G906" s="28"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="G907" s="28"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="G908" s="28"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="G909" s="28"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="G910" s="28"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="G911" s="28"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="G912" s="28"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="G913" s="28"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="G914" s="28"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="G915" s="28"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="G916" s="28"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="G917" s="28"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="G918" s="28"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="G919" s="28"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="G920" s="28"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="G921" s="28"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="G922" s="28"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="G923" s="28"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="G924" s="28"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="G925" s="28"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="G926" s="28"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="G927" s="28"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="G928" s="28"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="G929" s="28"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="G930" s="28"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="G931" s="28"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="G932" s="28"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="G933" s="28"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="G934" s="28"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="G935" s="28"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="G936" s="28"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="G937" s="28"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="G938" s="28"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="G939" s="28"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="G940" s="28"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="G941" s="28"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="G942" s="28"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="G943" s="28"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="G944" s="28"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="G945" s="28"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="G946" s="28"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="G947" s="28"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="G948" s="28"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="G949" s="28"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="G950" s="28"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="G951" s="28"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="G952" s="28"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="G953" s="28"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="G954" s="28"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="G955" s="28"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="G956" s="28"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="G957" s="28"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="G958" s="28"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="G959" s="28"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="G960" s="28"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="G961" s="28"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="G962" s="28"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="G963" s="28"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="G964" s="28"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="G965" s="28"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="G966" s="28"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="G967" s="28"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="G968" s="28"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="G969" s="28"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="G970" s="28"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="G971" s="28"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="G972" s="28"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="G973" s="28"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="G974" s="28"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="G975" s="28"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="G976" s="28"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="G977" s="28"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="G978" s="28"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="G979" s="28"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="G980" s="28"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="G981" s="28"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="G982" s="28"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="G983" s="28"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="G984" s="28"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="G985" s="28"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="G986" s="28"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="G987" s="28"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="G988" s="28"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="G989" s="28"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="G990" s="28"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="G991" s="28"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="G992" s="28"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="G993" s="28"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="G994" s="28"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="G995" s="28"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="G996" s="28"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="G997" s="28"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="G998" s="28"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="G999" s="28"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="G1000" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B112:B113"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B77:G77"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B77:G77"/>
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B104:B109"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DicionarioDeDados.xlsx
+++ b/DicionarioDeDados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="189">
   <si>
     <t>Curso</t>
   </si>
@@ -428,6 +428,33 @@
   </si>
   <si>
     <t>funçao do professor no projeto de pesquisa</t>
+  </si>
+  <si>
+    <t>alunoTurma</t>
+  </si>
+  <si>
+    <t>turma_cod_id</t>
+  </si>
+  <si>
+    <t>professorTurma</t>
+  </si>
+  <si>
+    <t>professorMaterial_didatico</t>
+  </si>
+  <si>
+    <t>material_didatico_cod_id</t>
+  </si>
+  <si>
+    <t>material_didaticoTurma</t>
+  </si>
+  <si>
+    <t>turmaDisciplina</t>
+  </si>
+  <si>
+    <t>disciplina_cod_id</t>
+  </si>
+  <si>
+    <t>turmaAvaliacao</t>
   </si>
   <si>
     <t>Entidade</t>
@@ -558,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -583,7 +610,18 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -697,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -765,6 +803,9 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,9 +815,6 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -785,6 +823,18 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -799,8 +849,8 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -817,12 +867,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,7 +1091,6 @@
     <col customWidth="1" min="5" max="5" width="35.75"/>
     <col customWidth="1" min="6" max="6" width="18.75"/>
     <col customWidth="1" min="7" max="7" width="21.88"/>
-    <col customWidth="1" min="8" max="26" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1963,15 +2006,16 @@
       <c r="G54" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="P54" s="25"/>
     </row>
     <row r="55" ht="50.25" customHeight="1">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -1983,26 +2027,28 @@
       <c r="G55" s="24" t="s">
         <v>93</v>
       </c>
+      <c r="P55" s="25"/>
     </row>
     <row r="56" ht="50.25" customHeight="1">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="28" t="s">
         <v>96</v>
       </c>
+      <c r="P56" s="25"/>
     </row>
     <row r="57" ht="50.25" customHeight="1">
       <c r="B57" s="13" t="s">
@@ -2023,6 +2069,7 @@
       <c r="G57" s="12" t="s">
         <v>99</v>
       </c>
+      <c r="P57" s="25"/>
     </row>
     <row r="58" ht="50.25" customHeight="1">
       <c r="B58" s="10" t="s">
@@ -2043,6 +2090,7 @@
       <c r="G58" s="12" t="s">
         <v>101</v>
       </c>
+      <c r="P58" s="25"/>
     </row>
     <row r="59" ht="50.25" customHeight="1">
       <c r="B59" s="1"/>
@@ -2051,6 +2099,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="2"/>
+      <c r="P59" s="25"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="B60" s="3" t="s">
@@ -2061,6 +2110,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="5"/>
+      <c r="P60" s="25"/>
     </row>
     <row r="61" ht="50.25" customHeight="1">
       <c r="B61" s="6" t="s">
@@ -2081,6 +2131,7 @@
       <c r="G61" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="P61" s="25"/>
     </row>
     <row r="62" ht="50.25" customHeight="1">
       <c r="B62" s="10" t="s">
@@ -2101,6 +2152,7 @@
       <c r="G62" s="12" t="s">
         <v>103</v>
       </c>
+      <c r="P62" s="25"/>
     </row>
     <row r="63" ht="50.25" customHeight="1">
       <c r="B63" s="10" t="s">
@@ -2121,6 +2173,7 @@
       <c r="G63" s="12" t="s">
         <v>104</v>
       </c>
+      <c r="P63" s="25"/>
     </row>
     <row r="64" ht="50.25" customHeight="1">
       <c r="B64" s="10" t="s">
@@ -2141,6 +2194,7 @@
       <c r="G64" s="12" t="s">
         <v>106</v>
       </c>
+      <c r="P64" s="25"/>
     </row>
     <row r="65" ht="50.25" customHeight="1">
       <c r="B65" s="10" t="s">
@@ -2161,6 +2215,7 @@
       <c r="G65" s="12" t="s">
         <v>108</v>
       </c>
+      <c r="P65" s="25"/>
     </row>
     <row r="66" ht="50.25" customHeight="1">
       <c r="B66" s="10" t="s">
@@ -2181,6 +2236,7 @@
       <c r="G66" s="12" t="s">
         <v>109</v>
       </c>
+      <c r="P66" s="25"/>
     </row>
     <row r="67" ht="50.25" customHeight="1">
       <c r="B67" s="10" t="s">
@@ -2201,6 +2257,7 @@
       <c r="G67" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="P67" s="25"/>
     </row>
     <row r="68" ht="50.25" customHeight="1">
       <c r="B68" s="1"/>
@@ -2209,6 +2266,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="2"/>
+      <c r="P68" s="25"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="B69" s="17" t="s">
@@ -2219,6 +2277,7 @@
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="19"/>
+      <c r="P69" s="25"/>
     </row>
     <row r="70" ht="50.25" customHeight="1">
       <c r="B70" s="6" t="s">
@@ -2239,6 +2298,7 @@
       <c r="G70" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="P70" s="25"/>
     </row>
     <row r="71" ht="50.25" customHeight="1">
       <c r="B71" s="8" t="s">
@@ -2259,6 +2319,7 @@
       <c r="G71" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="P71" s="25"/>
     </row>
     <row r="72" ht="50.25" customHeight="1">
       <c r="B72" s="10" t="s">
@@ -2279,6 +2340,7 @@
       <c r="G72" s="12" t="s">
         <v>115</v>
       </c>
+      <c r="P72" s="25"/>
     </row>
     <row r="73" ht="50.25" customHeight="1">
       <c r="B73" s="10" t="s">
@@ -2299,6 +2361,7 @@
       <c r="G73" s="12" t="s">
         <v>117</v>
       </c>
+      <c r="P73" s="25"/>
     </row>
     <row r="74" ht="50.25" customHeight="1">
       <c r="B74" s="11" t="s">
@@ -2319,6 +2382,7 @@
       <c r="G74" s="24" t="s">
         <v>119</v>
       </c>
+      <c r="P74" s="25"/>
     </row>
     <row r="75" ht="50.25" customHeight="1">
       <c r="B75" s="10" t="s">
@@ -2339,9 +2403,11 @@
       <c r="G75" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="P75" s="25"/>
     </row>
     <row r="76" ht="50.25" customHeight="1">
-      <c r="G76" s="28"/>
+      <c r="G76" s="25"/>
+      <c r="P76" s="25"/>
     </row>
     <row r="77" ht="15.0" customHeight="1">
       <c r="B77" s="3" t="s">
@@ -2352,8 +2418,9 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="5"/>
-    </row>
-    <row r="78" ht="50.25" customHeight="1">
+      <c r="P77" s="25"/>
+    </row>
+    <row r="78" ht="53.25" customHeight="1">
       <c r="B78" s="29" t="s">
         <v>1</v>
       </c>
@@ -2372,8 +2439,9 @@
       <c r="G78" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" ht="50.25" customHeight="1">
+      <c r="P78" s="25"/>
+    </row>
+    <row r="79" ht="33.0" customHeight="1">
       <c r="B79" s="31" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" ht="50.25" customHeight="1">
+    <row r="80" ht="29.25" customHeight="1">
       <c r="B80" s="31" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2481,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" ht="83.25" customHeight="1">
+    <row r="81" ht="24.75" customHeight="1">
       <c r="B81" s="31" t="s">
         <v>48</v>
       </c>
@@ -2433,7 +2501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" ht="50.25" customHeight="1">
+    <row r="82" ht="24.75" customHeight="1">
       <c r="B82" s="31" t="s">
         <v>124</v>
       </c>
@@ -2453,7 +2521,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" ht="50.25" customHeight="1">
+    <row r="83" ht="24.75" customHeight="1">
       <c r="B83" s="31" t="s">
         <v>128</v>
       </c>
@@ -2473,8 +2541,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="G84" s="28"/>
+    <row r="84" ht="30.75" customHeight="1">
+      <c r="G84" s="25"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="3" t="s">
@@ -2486,7 +2554,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" ht="63.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="29" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" ht="63.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="31" t="s">
         <v>80</v>
       </c>
@@ -2526,7 +2594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" ht="63.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="31" t="s">
         <v>132</v>
       </c>
@@ -2546,7 +2614,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" ht="57.0" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="31" t="s">
         <v>134</v>
       </c>
@@ -2567,7 +2635,7 @@
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="G90" s="28"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="3" t="s">
@@ -2579,7 +2647,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" ht="60.0" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="29" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" ht="60.0" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="31" t="s">
         <v>137</v>
       </c>
@@ -2619,7 +2687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" ht="60.0" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="31" t="s">
         <v>132</v>
       </c>
@@ -2639,7 +2707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" ht="60.0" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="31" t="s">
         <v>134</v>
       </c>
@@ -2660,3036 +2728,1976 @@
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="G96" s="28"/>
+      <c r="G96" s="25"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="G97" s="28"/>
-    </row>
-    <row r="98" ht="53.25" customHeight="1">
-      <c r="B98" s="34" t="s">
+      <c r="B97" s="34" t="s">
         <v>139</v>
       </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="B98" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="C98" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="B99" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="B100" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="C100" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="B102" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="B103" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="28"/>
-    </row>
-    <row r="99" ht="33.0" customHeight="1">
-      <c r="B99" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="36" t="s">
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="B104" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="B105" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="B107" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E99" s="37" t="s">
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G99" s="28"/>
-    </row>
-    <row r="100" ht="29.25" customHeight="1">
-      <c r="B100" s="38"/>
-      <c r="C100" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="39" t="s">
+      <c r="C110" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="B112" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E100" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G100" s="28"/>
-    </row>
-    <row r="101" ht="24.75" customHeight="1">
-      <c r="B101" s="38"/>
-      <c r="C101" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E101" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G101" s="28"/>
-    </row>
-    <row r="102" ht="24.75" customHeight="1">
-      <c r="B102" s="40"/>
-      <c r="C102" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G102" s="28"/>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="B103" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103" s="28"/>
-    </row>
-    <row r="104" ht="30.75" customHeight="1">
-      <c r="B104" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G104" s="28"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="38"/>
-      <c r="C105" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="G105" s="28"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="38"/>
-      <c r="C106" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D106" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G106" s="28"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="38"/>
-      <c r="C107" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G107" s="28"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="38"/>
-      <c r="C108" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E108" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G108" s="28"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="40"/>
-      <c r="C109" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="G109" s="28"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C110" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D110" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E110" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G110" s="28"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E111" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G111" s="28"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="G112" s="28"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="40"/>
-      <c r="C113" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="G113" s="28"/>
+      <c r="B113" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E114" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G114" s="28"/>
+        <v>140</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="40"/>
-      <c r="C115" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E115" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G115" s="28"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E116" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G116" s="28"/>
+      <c r="B115" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="38"/>
-      <c r="C117" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="E117" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G117" s="28"/>
+      <c r="B117" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="40"/>
-      <c r="C118" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="G118" s="28"/>
+      <c r="B118" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="B119" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="B124" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="G126" s="25"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="25"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G128" s="25"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="42"/>
+      <c r="C129" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G129" s="25"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="42"/>
+      <c r="C130" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E130" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" s="25"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="44"/>
+      <c r="C131" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G131" s="25"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G132" s="25"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E133" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G133" s="25"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="42"/>
+      <c r="C134" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D134" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" s="25"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="42"/>
+      <c r="C135" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="25"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="B136" s="42"/>
+      <c r="C136" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E136" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G136" s="25"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="B137" s="42"/>
+      <c r="C137" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G137" s="25"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="B138" s="44"/>
+      <c r="C138" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E138" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G138" s="25"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="B139" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="36" t="s">
+      <c r="E139" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="G139" s="25"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="B140" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D140" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E140" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G140" s="25"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="B141" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E141" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G141" s="25"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="B142" s="44"/>
+      <c r="C142" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E119" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="G119" s="28"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="40"/>
-      <c r="C120" s="36" t="s">
+      <c r="D142" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G142" s="25"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="B143" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G143" s="25"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="B144" s="44"/>
+      <c r="C144" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D144" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G144" s="25"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="B145" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E145" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G145" s="25"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="B146" s="42"/>
+      <c r="C146" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E146" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G146" s="25"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="B147" s="44"/>
+      <c r="C147" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E147" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G147" s="25"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="B148" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G148" s="25"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="B149" s="44"/>
+      <c r="C149" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D120" s="36" t="s">
+      <c r="D149" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="G120" s="28"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="35" t="s">
+      <c r="E149" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G149" s="25"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="B150" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C150" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D121" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="E121" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="G121" s="28"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="40"/>
-      <c r="C122" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D122" s="36" t="s">
+      <c r="D150" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E150" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G150" s="25"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="B151" s="44"/>
+      <c r="C151" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E122" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="G122" s="28"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="G123" s="28"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="46"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="G124" s="28"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="46"/>
-      <c r="C125" s="46"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="G125" s="28"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="46"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
-      <c r="G126" s="28"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="46"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46"/>
-      <c r="G127" s="28"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="G128" s="28"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="46"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
-      <c r="G129" s="28"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="46"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
-      <c r="G130" s="28"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
-      <c r="G131" s="28"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="47"/>
-      <c r="G132" s="28"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="47"/>
-      <c r="G133" s="28"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="47"/>
-      <c r="G134" s="28"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="47"/>
-      <c r="G135" s="28"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="47"/>
-      <c r="G136" s="28"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="47"/>
-      <c r="G137" s="28"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="G138" s="28"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="G139" s="28"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="G140" s="28"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="G141" s="28"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="G142" s="28"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="G143" s="28"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="G144" s="28"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="G145" s="28"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="G146" s="28"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="G147" s="28"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="G148" s="28"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="G149" s="28"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="G150" s="28"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="G151" s="28"/>
+      <c r="E151" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G151" s="25"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="G152" s="28"/>
+      <c r="G152" s="25"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="G153" s="28"/>
+      <c r="G153" s="25"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="G154" s="28"/>
+      <c r="G154" s="25"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="G155" s="28"/>
+      <c r="G155" s="25"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="G156" s="28"/>
+      <c r="G156" s="25"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="G157" s="28"/>
+      <c r="G157" s="25"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="G158" s="28"/>
+      <c r="G158" s="25"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="G159" s="28"/>
+      <c r="G159" s="25"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="G160" s="28"/>
+      <c r="G160" s="25"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="G161" s="28"/>
+      <c r="G161" s="25"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="G162" s="28"/>
+      <c r="G162" s="25"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="G163" s="28"/>
+      <c r="G163" s="25"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="G164" s="28"/>
+      <c r="G164" s="25"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="G165" s="28"/>
+      <c r="G165" s="25"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="G166" s="28"/>
+      <c r="G166" s="25"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="G167" s="28"/>
+      <c r="G167" s="25"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="G168" s="28"/>
+      <c r="G168" s="25"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="G169" s="28"/>
+      <c r="G169" s="25"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="G170" s="28"/>
+      <c r="G170" s="25"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="G171" s="28"/>
+      <c r="G171" s="25"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="G172" s="28"/>
+      <c r="G172" s="25"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="G173" s="28"/>
+      <c r="G173" s="25"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="G174" s="28"/>
+      <c r="G174" s="25"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="G175" s="28"/>
+      <c r="G175" s="25"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="G176" s="28"/>
+      <c r="G176" s="25"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="G177" s="28"/>
+      <c r="G177" s="25"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="G178" s="28"/>
+      <c r="G178" s="25"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="G179" s="28"/>
+      <c r="G179" s="25"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="G180" s="28"/>
+      <c r="G180" s="25"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="G181" s="28"/>
+      <c r="G181" s="25"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="G182" s="28"/>
+      <c r="G182" s="25"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="G183" s="28"/>
+      <c r="G183" s="25"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="G184" s="28"/>
+      <c r="G184" s="25"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="G185" s="28"/>
+      <c r="G185" s="25"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="G186" s="28"/>
+      <c r="G186" s="25"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="G187" s="28"/>
+      <c r="G187" s="25"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="G188" s="28"/>
+      <c r="G188" s="25"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="G189" s="28"/>
+      <c r="G189" s="25"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="G190" s="28"/>
+      <c r="G190" s="25"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="G191" s="28"/>
+      <c r="G191" s="25"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="G192" s="28"/>
+      <c r="G192" s="25"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="G193" s="28"/>
+      <c r="G193" s="25"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="G194" s="28"/>
+      <c r="G194" s="25"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="G195" s="28"/>
+      <c r="G195" s="25"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="G196" s="28"/>
+      <c r="G196" s="25"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="G197" s="28"/>
+      <c r="G197" s="25"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="G198" s="28"/>
+      <c r="G198" s="25"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="G199" s="28"/>
+      <c r="G199" s="25"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="G200" s="28"/>
+      <c r="G200" s="25"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="G201" s="28"/>
+      <c r="G201" s="25"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="G202" s="28"/>
+      <c r="G202" s="25"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="G203" s="28"/>
+      <c r="G203" s="25"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="G204" s="28"/>
+      <c r="G204" s="25"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="G205" s="28"/>
+      <c r="G205" s="25"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="G206" s="28"/>
+      <c r="G206" s="25"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="G207" s="28"/>
+      <c r="G207" s="25"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="G208" s="28"/>
+      <c r="G208" s="25"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="G209" s="28"/>
+      <c r="G209" s="25"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="G210" s="28"/>
+      <c r="G210" s="25"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="G211" s="28"/>
+      <c r="G211" s="25"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="G212" s="28"/>
+      <c r="G212" s="25"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="G213" s="28"/>
+      <c r="G213" s="25"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="G214" s="28"/>
+      <c r="G214" s="25"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="G215" s="28"/>
+      <c r="G215" s="25"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="G216" s="28"/>
+      <c r="G216" s="25"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="G217" s="28"/>
+      <c r="G217" s="25"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="G218" s="28"/>
+      <c r="G218" s="25"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="G219" s="28"/>
+      <c r="G219" s="25"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="G220" s="28"/>
+      <c r="G220" s="25"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="G221" s="28"/>
+      <c r="G221" s="25"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="G222" s="28"/>
+      <c r="G222" s="25"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="G223" s="28"/>
+      <c r="G223" s="25"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="G224" s="28"/>
+      <c r="G224" s="25"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="G225" s="28"/>
+      <c r="G225" s="25"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="G226" s="28"/>
+      <c r="G226" s="25"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="G227" s="28"/>
+      <c r="G227" s="25"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="G228" s="28"/>
+      <c r="G228" s="25"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="G229" s="28"/>
+      <c r="G229" s="25"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="G230" s="28"/>
+      <c r="G230" s="25"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="G231" s="28"/>
+      <c r="G231" s="25"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="G232" s="28"/>
+      <c r="G232" s="25"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="G233" s="28"/>
+      <c r="G233" s="25"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="G234" s="28"/>
+      <c r="G234" s="25"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="G235" s="28"/>
+      <c r="G235" s="25"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="G236" s="28"/>
+      <c r="G236" s="25"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="G237" s="28"/>
+      <c r="G237" s="25"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="G238" s="28"/>
+      <c r="G238" s="25"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="G239" s="28"/>
+      <c r="G239" s="25"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="G240" s="28"/>
+      <c r="G240" s="25"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="G241" s="28"/>
+      <c r="G241" s="25"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="G242" s="28"/>
+      <c r="G242" s="25"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="G243" s="28"/>
+      <c r="G243" s="25"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="G244" s="28"/>
+      <c r="G244" s="25"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="G245" s="28"/>
+      <c r="G245" s="25"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="G246" s="28"/>
+      <c r="G246" s="25"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="G247" s="28"/>
+      <c r="G247" s="25"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="G248" s="28"/>
+      <c r="G248" s="25"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="G249" s="28"/>
+      <c r="G249" s="25"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="G250" s="28"/>
+      <c r="G250" s="25"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="G251" s="28"/>
+      <c r="G251" s="25"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="G252" s="28"/>
+      <c r="G252" s="25"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="G253" s="28"/>
+      <c r="G253" s="25"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="G254" s="28"/>
+      <c r="G254" s="25"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="G255" s="28"/>
+      <c r="G255" s="25"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="G256" s="28"/>
+      <c r="G256" s="25"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="G257" s="28"/>
+      <c r="G257" s="25"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="G258" s="28"/>
+      <c r="G258" s="25"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="G259" s="28"/>
+      <c r="G259" s="25"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="G260" s="28"/>
+      <c r="G260" s="25"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="G261" s="28"/>
+      <c r="G261" s="25"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="G262" s="28"/>
+      <c r="G262" s="25"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="G263" s="28"/>
+      <c r="G263" s="25"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="G264" s="28"/>
+      <c r="G264" s="25"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="G265" s="28"/>
+      <c r="G265" s="25"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="G266" s="28"/>
+      <c r="G266" s="25"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="G267" s="28"/>
+      <c r="G267" s="25"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="G268" s="28"/>
+      <c r="G268" s="25"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="G269" s="28"/>
+      <c r="G269" s="25"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="G270" s="28"/>
+      <c r="G270" s="25"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="G271" s="28"/>
+      <c r="G271" s="25"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="G272" s="28"/>
+      <c r="G272" s="25"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="G273" s="28"/>
+      <c r="G273" s="25"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="G274" s="28"/>
+      <c r="G274" s="25"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="G275" s="28"/>
+      <c r="G275" s="25"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="G276" s="28"/>
+      <c r="G276" s="25"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="G277" s="28"/>
+      <c r="G277" s="25"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="G278" s="28"/>
+      <c r="G278" s="25"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="G279" s="28"/>
+      <c r="G279" s="25"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="G280" s="28"/>
+      <c r="G280" s="25"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="G281" s="28"/>
+      <c r="G281" s="25"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="G282" s="28"/>
+      <c r="G282" s="25"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="G283" s="28"/>
+      <c r="G283" s="25"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="G284" s="28"/>
+      <c r="G284" s="25"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="G285" s="28"/>
+      <c r="G285" s="25"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="G286" s="28"/>
+      <c r="G286" s="25"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="G287" s="28"/>
+      <c r="G287" s="25"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="G288" s="28"/>
+      <c r="G288" s="25"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="G289" s="28"/>
+      <c r="G289" s="25"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="G290" s="28"/>
+      <c r="G290" s="25"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="G291" s="28"/>
+      <c r="G291" s="25"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="G292" s="28"/>
+      <c r="G292" s="25"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="G293" s="28"/>
+      <c r="G293" s="25"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="G294" s="28"/>
+      <c r="G294" s="25"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="G295" s="28"/>
+      <c r="G295" s="25"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="G296" s="28"/>
+      <c r="G296" s="25"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="G297" s="28"/>
+      <c r="G297" s="25"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="G298" s="28"/>
+      <c r="G298" s="25"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="G299" s="28"/>
+      <c r="G299" s="25"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="G300" s="28"/>
+      <c r="G300" s="25"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="G301" s="28"/>
+      <c r="G301" s="25"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="G302" s="28"/>
+      <c r="G302" s="25"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="G303" s="28"/>
+      <c r="G303" s="25"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="G304" s="28"/>
+      <c r="G304" s="25"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="G305" s="28"/>
+      <c r="G305" s="25"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="G306" s="28"/>
+      <c r="G306" s="25"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="G307" s="28"/>
+      <c r="G307" s="25"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="G308" s="28"/>
+      <c r="G308" s="25"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="G309" s="28"/>
+      <c r="G309" s="25"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="G310" s="28"/>
+      <c r="G310" s="25"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="G311" s="28"/>
+      <c r="G311" s="25"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="G312" s="28"/>
+      <c r="G312" s="25"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="G313" s="28"/>
+      <c r="G313" s="25"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="G314" s="28"/>
+      <c r="G314" s="25"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="G315" s="28"/>
+      <c r="G315" s="25"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="G316" s="28"/>
+      <c r="G316" s="25"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="G317" s="28"/>
+      <c r="G317" s="25"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="G318" s="28"/>
+      <c r="G318" s="25"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="G319" s="28"/>
+      <c r="G319" s="25"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="G320" s="28"/>
+      <c r="G320" s="25"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="G321" s="28"/>
+      <c r="G321" s="25"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="G322" s="28"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="G323" s="28"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="G324" s="28"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="G325" s="28"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="G326" s="28"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="G327" s="28"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="G328" s="28"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="G329" s="28"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="G330" s="28"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="G331" s="28"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="G332" s="28"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="G333" s="28"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="G334" s="28"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="G335" s="28"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="G336" s="28"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="G337" s="28"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="G338" s="28"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="G339" s="28"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="G340" s="28"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="G341" s="28"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="G342" s="28"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="G343" s="28"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="G344" s="28"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="G345" s="28"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="G346" s="28"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="G347" s="28"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="G348" s="28"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="G349" s="28"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="G350" s="28"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="G351" s="28"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="G352" s="28"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="G353" s="28"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="G354" s="28"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="G355" s="28"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="G356" s="28"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="G357" s="28"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="G358" s="28"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="G359" s="28"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="G360" s="28"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="G361" s="28"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="G362" s="28"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="G363" s="28"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="G364" s="28"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="G365" s="28"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="G366" s="28"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="G367" s="28"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="G368" s="28"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="G369" s="28"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="G370" s="28"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="G371" s="28"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="G372" s="28"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="G373" s="28"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="G374" s="28"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="G375" s="28"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="G376" s="28"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="G377" s="28"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="G378" s="28"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="G379" s="28"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="G380" s="28"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="G381" s="28"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="G382" s="28"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="G383" s="28"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="G384" s="28"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="G385" s="28"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="G386" s="28"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="G387" s="28"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="G388" s="28"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="G389" s="28"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="G390" s="28"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="G391" s="28"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="G392" s="28"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="G393" s="28"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="G394" s="28"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="G395" s="28"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="G396" s="28"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="G397" s="28"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="G398" s="28"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="G399" s="28"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="G400" s="28"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="G401" s="28"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="G402" s="28"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="G403" s="28"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="G404" s="28"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="G405" s="28"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="G406" s="28"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="G407" s="28"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="G408" s="28"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="G409" s="28"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="G410" s="28"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="G411" s="28"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="G412" s="28"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="G413" s="28"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="G414" s="28"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="G415" s="28"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="G416" s="28"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="G417" s="28"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="G418" s="28"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="G419" s="28"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="G420" s="28"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="G421" s="28"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="G422" s="28"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="G423" s="28"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="G424" s="28"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="G425" s="28"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="G426" s="28"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="G427" s="28"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="G428" s="28"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="G429" s="28"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="G430" s="28"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="G431" s="28"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="G432" s="28"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="G433" s="28"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="G434" s="28"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="G435" s="28"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="G436" s="28"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="G437" s="28"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="G438" s="28"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="G439" s="28"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="G440" s="28"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="G441" s="28"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="G442" s="28"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="G443" s="28"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="G444" s="28"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="G445" s="28"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="G446" s="28"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="G447" s="28"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="G448" s="28"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="G449" s="28"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="G450" s="28"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="G451" s="28"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="G452" s="28"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="G453" s="28"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="G454" s="28"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="G455" s="28"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="G456" s="28"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="G457" s="28"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="G458" s="28"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="G459" s="28"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="G460" s="28"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="G461" s="28"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="G462" s="28"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="G463" s="28"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="G464" s="28"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="G465" s="28"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="G466" s="28"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="G467" s="28"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="G468" s="28"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="G469" s="28"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="G470" s="28"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="G471" s="28"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="G472" s="28"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="G473" s="28"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="G474" s="28"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="G475" s="28"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="G476" s="28"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="G477" s="28"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="G478" s="28"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="G479" s="28"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="G480" s="28"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="G481" s="28"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="G482" s="28"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="G483" s="28"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="G484" s="28"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="G485" s="28"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="G486" s="28"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="G487" s="28"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="G488" s="28"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="G489" s="28"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="G490" s="28"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="G491" s="28"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="G492" s="28"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="G493" s="28"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="G494" s="28"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="G495" s="28"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="G496" s="28"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="G497" s="28"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="G498" s="28"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="G499" s="28"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="G500" s="28"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="G501" s="28"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="G502" s="28"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="G503" s="28"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="G504" s="28"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="G505" s="28"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="G506" s="28"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="G507" s="28"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="G508" s="28"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="G509" s="28"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="G510" s="28"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="G511" s="28"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="G512" s="28"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="G513" s="28"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="G514" s="28"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="G515" s="28"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="G516" s="28"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="G517" s="28"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="G518" s="28"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="G519" s="28"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="G520" s="28"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="G521" s="28"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="G522" s="28"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="G523" s="28"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="G524" s="28"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="G525" s="28"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="G526" s="28"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="G527" s="28"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="G528" s="28"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="G529" s="28"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="G530" s="28"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="G531" s="28"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="G532" s="28"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="G533" s="28"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="G534" s="28"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="G535" s="28"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="G536" s="28"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="G537" s="28"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="G538" s="28"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="G539" s="28"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="G540" s="28"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="G541" s="28"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="G542" s="28"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="G543" s="28"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="G544" s="28"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="G545" s="28"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="G546" s="28"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="G547" s="28"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="G548" s="28"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="G549" s="28"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="G550" s="28"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="G551" s="28"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="G552" s="28"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="G553" s="28"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="G554" s="28"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="G555" s="28"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="G556" s="28"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="G557" s="28"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="G558" s="28"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="G559" s="28"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="G560" s="28"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="G561" s="28"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="G562" s="28"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="G563" s="28"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="G564" s="28"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="G565" s="28"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="G566" s="28"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="G567" s="28"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="G568" s="28"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="G569" s="28"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="G570" s="28"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="G571" s="28"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="G572" s="28"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="G573" s="28"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="G574" s="28"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="G575" s="28"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="G576" s="28"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="G577" s="28"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="G578" s="28"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="G579" s="28"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="G580" s="28"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="G581" s="28"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="G582" s="28"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="G583" s="28"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="G584" s="28"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="G585" s="28"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="G586" s="28"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="G587" s="28"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="G588" s="28"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="G589" s="28"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="G590" s="28"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="G591" s="28"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="G592" s="28"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="G593" s="28"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="G594" s="28"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="G595" s="28"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="G596" s="28"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="G597" s="28"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="G598" s="28"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="G599" s="28"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="G600" s="28"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="G601" s="28"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="G602" s="28"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="G603" s="28"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="G604" s="28"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="G605" s="28"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="G606" s="28"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="G607" s="28"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="G608" s="28"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="G609" s="28"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="G610" s="28"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="G611" s="28"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="G612" s="28"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="G613" s="28"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="G614" s="28"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="G615" s="28"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="G616" s="28"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="G617" s="28"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="G618" s="28"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="G619" s="28"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="G620" s="28"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="G621" s="28"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="G622" s="28"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="G623" s="28"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="G624" s="28"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="G625" s="28"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="G626" s="28"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="G627" s="28"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="G628" s="28"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="G629" s="28"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="G630" s="28"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="G631" s="28"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="G632" s="28"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="G633" s="28"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="G634" s="28"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="G635" s="28"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="G636" s="28"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="G637" s="28"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="G638" s="28"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="G639" s="28"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="G640" s="28"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="G641" s="28"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="G642" s="28"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="G643" s="28"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="G644" s="28"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="G645" s="28"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="G646" s="28"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="G647" s="28"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="G648" s="28"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="G649" s="28"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="G650" s="28"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="G651" s="28"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="G652" s="28"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="G653" s="28"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="G654" s="28"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="G655" s="28"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="G656" s="28"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="G657" s="28"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="G658" s="28"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="G659" s="28"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="G660" s="28"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="G661" s="28"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="G662" s="28"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="G663" s="28"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="G664" s="28"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="G665" s="28"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="G666" s="28"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="G667" s="28"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="G668" s="28"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="G669" s="28"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="G670" s="28"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="G671" s="28"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="G672" s="28"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="G673" s="28"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="G674" s="28"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="G675" s="28"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="G676" s="28"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="G677" s="28"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="G678" s="28"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="G679" s="28"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="G680" s="28"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="G681" s="28"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="G682" s="28"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="G683" s="28"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="G684" s="28"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="G685" s="28"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="G686" s="28"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="G687" s="28"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="G688" s="28"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="G689" s="28"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="G690" s="28"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="G691" s="28"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="G692" s="28"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="G693" s="28"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="G694" s="28"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="G695" s="28"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="G696" s="28"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="G697" s="28"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="G698" s="28"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="G699" s="28"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="G700" s="28"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="G701" s="28"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="G702" s="28"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="G703" s="28"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="G704" s="28"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="G705" s="28"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="G706" s="28"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="G707" s="28"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="G708" s="28"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="G709" s="28"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="G710" s="28"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="G711" s="28"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="G712" s="28"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="G713" s="28"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="G714" s="28"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="G715" s="28"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="G716" s="28"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="G717" s="28"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="G718" s="28"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="G719" s="28"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="G720" s="28"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="G721" s="28"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="G722" s="28"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="G723" s="28"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="G724" s="28"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="G725" s="28"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="G726" s="28"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="G727" s="28"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="G728" s="28"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="G729" s="28"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="G730" s="28"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="G731" s="28"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="G732" s="28"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="G733" s="28"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="G734" s="28"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="G735" s="28"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="G736" s="28"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="G737" s="28"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="G738" s="28"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="G739" s="28"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="G740" s="28"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="G741" s="28"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="G742" s="28"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="G743" s="28"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="G744" s="28"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="G745" s="28"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="G746" s="28"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="G747" s="28"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="G748" s="28"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="G749" s="28"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="G750" s="28"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="G751" s="28"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="G752" s="28"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="G753" s="28"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="G754" s="28"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="G755" s="28"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="G756" s="28"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="G757" s="28"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="G758" s="28"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="G759" s="28"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="G760" s="28"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="G761" s="28"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="G762" s="28"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="G763" s="28"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="G764" s="28"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="G765" s="28"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="G766" s="28"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="G767" s="28"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="G768" s="28"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="G769" s="28"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="G770" s="28"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="G771" s="28"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="G772" s="28"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="G773" s="28"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="G774" s="28"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="G775" s="28"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="G776" s="28"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="G777" s="28"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="G778" s="28"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="G779" s="28"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="G780" s="28"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="G781" s="28"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="G782" s="28"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="G783" s="28"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="G784" s="28"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="G785" s="28"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="G786" s="28"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="G787" s="28"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="G788" s="28"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="G789" s="28"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="G790" s="28"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="G791" s="28"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="G792" s="28"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="G793" s="28"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="G794" s="28"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="G795" s="28"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="G796" s="28"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="G797" s="28"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="G798" s="28"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="G799" s="28"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="G800" s="28"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="G801" s="28"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="G802" s="28"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="G803" s="28"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="G804" s="28"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="G805" s="28"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="G806" s="28"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="G807" s="28"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="G808" s="28"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="G809" s="28"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="G810" s="28"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="G811" s="28"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="G812" s="28"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="G813" s="28"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="G814" s="28"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="G815" s="28"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="G816" s="28"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="G817" s="28"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="G818" s="28"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="G819" s="28"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="G820" s="28"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="G821" s="28"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="G822" s="28"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="G823" s="28"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="G824" s="28"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="G825" s="28"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="G826" s="28"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="G827" s="28"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="G828" s="28"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="G829" s="28"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="G830" s="28"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="G831" s="28"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="G832" s="28"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="G833" s="28"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="G834" s="28"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="G835" s="28"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="G836" s="28"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="G837" s="28"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="G838" s="28"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="G839" s="28"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="G840" s="28"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="G841" s="28"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="G842" s="28"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="G843" s="28"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="G844" s="28"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="G845" s="28"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="G846" s="28"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="G847" s="28"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="G848" s="28"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="G849" s="28"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="G850" s="28"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="G851" s="28"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="G852" s="28"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="G853" s="28"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="G854" s="28"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="G855" s="28"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="G856" s="28"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="G857" s="28"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="G858" s="28"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="G859" s="28"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="G860" s="28"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="G861" s="28"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="G862" s="28"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="G863" s="28"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="G864" s="28"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="G865" s="28"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="G866" s="28"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="G867" s="28"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="G868" s="28"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="G869" s="28"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="G870" s="28"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="G871" s="28"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="G872" s="28"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="G873" s="28"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="G874" s="28"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="G875" s="28"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="G876" s="28"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="G877" s="28"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="G878" s="28"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="G879" s="28"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="G880" s="28"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="G881" s="28"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="G882" s="28"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="G883" s="28"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="G884" s="28"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="G885" s="28"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="G886" s="28"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="G887" s="28"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="G888" s="28"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="G889" s="28"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="G890" s="28"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="G891" s="28"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="G892" s="28"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="G893" s="28"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="G894" s="28"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="G895" s="28"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="G896" s="28"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="G897" s="28"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="G898" s="28"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="G899" s="28"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="G900" s="28"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="G901" s="28"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="G902" s="28"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="G903" s="28"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="G904" s="28"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="G905" s="28"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="G906" s="28"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="G907" s="28"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="G908" s="28"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="G909" s="28"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="G910" s="28"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="G911" s="28"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="G912" s="28"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="G913" s="28"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="G914" s="28"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="G915" s="28"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="G916" s="28"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="G917" s="28"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="G918" s="28"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="G919" s="28"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="G920" s="28"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="G921" s="28"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="G922" s="28"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="G923" s="28"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="G924" s="28"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="G925" s="28"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="G926" s="28"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="G927" s="28"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="G928" s="28"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="G929" s="28"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="G930" s="28"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="G931" s="28"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="G932" s="28"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="G933" s="28"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="G934" s="28"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="G935" s="28"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="G936" s="28"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="G937" s="28"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="G938" s="28"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="G939" s="28"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="G940" s="28"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="G941" s="28"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="G942" s="28"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="G943" s="28"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="G944" s="28"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="G945" s="28"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="G946" s="28"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="G947" s="28"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="G948" s="28"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="G949" s="28"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="G950" s="28"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="G951" s="28"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="G952" s="28"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="G953" s="28"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="G954" s="28"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="G955" s="28"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="G956" s="28"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="G957" s="28"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="G958" s="28"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="G959" s="28"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="G960" s="28"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="G961" s="28"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="G962" s="28"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="G963" s="28"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="G964" s="28"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="G965" s="28"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="G966" s="28"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="G967" s="28"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="G968" s="28"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="G969" s="28"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="G970" s="28"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="G971" s="28"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="G972" s="28"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="G973" s="28"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="G974" s="28"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="G975" s="28"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="G976" s="28"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="G977" s="28"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="G978" s="28"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="G979" s="28"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="G980" s="28"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="G981" s="28"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="G982" s="28"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="G983" s="28"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="G984" s="28"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="G985" s="28"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="G986" s="28"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="G987" s="28"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="G988" s="28"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="G989" s="28"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="G990" s="28"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="G991" s="28"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="G992" s="28"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="G993" s="28"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="G994" s="28"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="G995" s="28"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="G996" s="28"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="G997" s="28"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="G998" s="28"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="G999" s="28"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="G1000" s="28"/>
-    </row>
+      <c r="G322" s="25"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B18:G18"/>
@@ -5697,18 +4705,24 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B141:B142"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
